--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ORNSKOLDSVIK/Översikt ÖRNSKÖLDSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45122</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45122</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45122</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45124</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45124</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45124</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45124</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45124</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45127</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>45127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45131</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45132</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45135</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45135</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45135</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
